--- a/HW_Seminar3.xlsx
+++ b/HW_Seminar3.xlsx
@@ -792,6 +792,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -819,18 +831,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -855,13 +855,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>317506</xdr:rowOff>
+      <xdr:rowOff>210047</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>317506</xdr:rowOff>
+      <xdr:rowOff>210047</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -870,7 +870,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960938" y="3135319"/>
+          <a:off x="4951169" y="3267816"/>
           <a:ext cx="230187" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -910,7 +910,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>301625</xdr:rowOff>
+      <xdr:rowOff>199571</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -919,8 +919,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5175250" y="968375"/>
-          <a:ext cx="0" cy="2151063"/>
+          <a:off x="5170714" y="979714"/>
+          <a:ext cx="0" cy="2286000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1391,14 +1391,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>588969</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4769</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>588969</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4769</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
@@ -1409,8 +1409,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5541969" y="5254625"/>
-          <a:ext cx="0" cy="446088"/>
+          <a:off x="5451658" y="2159000"/>
+          <a:ext cx="0" cy="4096456"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1491,14 +1491,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>7938</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123837</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>588961</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>512761</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>123837</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1507,8 +1507,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4960938" y="5251450"/>
-          <a:ext cx="581023" cy="0"/>
+          <a:off x="4951867" y="2146766"/>
+          <a:ext cx="504823" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -3127,8 +3127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E32"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3375,7 +3375,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="42.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="H13" s="25" t="s">
         <v>93</v>
@@ -3444,19 +3444,19 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="28" x14ac:dyDescent="0.3">
-      <c r="H15" s="36" t="s">
+      <c r="H15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="37" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="37" t="s">
+      <c r="I15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="37">
-        <v>10</v>
-      </c>
-      <c r="L15" s="38" t="s">
+      <c r="K15" s="28">
+        <v>10</v>
+      </c>
+      <c r="L15" s="29" t="s">
         <v>62</v>
       </c>
       <c r="N15" s="5" t="s">
@@ -3519,7 +3519,7 @@
       <c r="K17" s="19">
         <v>12</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="30" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="5" t="s">
@@ -3562,7 +3562,7 @@
       <c r="K18" s="19">
         <v>12</v>
       </c>
-      <c r="L18" s="39" t="s">
+      <c r="L18" s="30" t="s">
         <v>67</v>
       </c>
       <c r="N18" s="5" t="s">
@@ -3750,13 +3750,13 @@
       </c>
     </row>
     <row r="26" spans="1:18" ht="35.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="27" t="s">
+      <c r="A26" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="33"/>
       <c r="H26" s="15" t="s">
         <v>4</v>
       </c>
@@ -3774,11 +3774,11 @@
       </c>
     </row>
     <row r="27" spans="1:18" ht="28" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="36"/>
       <c r="H27" s="18" t="s">
         <v>91</v>
       </c>
@@ -3796,11 +3796,11 @@
       </c>
     </row>
     <row r="28" spans="1:18" ht="28" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
       <c r="H28" s="18" t="s">
         <v>53</v>
       </c>
@@ -3818,11 +3818,11 @@
       </c>
     </row>
     <row r="29" spans="1:18" ht="42" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="32"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
       <c r="H29" s="21" t="s">
         <v>26</v>
       </c>
@@ -3840,11 +3840,11 @@
       </c>
     </row>
     <row r="30" spans="1:18" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="30"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="H30" s="22" t="s">
         <v>39</v>
       </c>
@@ -3862,18 +3862,18 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="34" spans="1:18" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="25" t="s">
